--- a/Example4_2020EntryLocations/fromBot_FacultySchedules_1SheetEach.xlsx
+++ b/Example4_2020EntryLocations/fromBot_FacultySchedules_1SheetEach.xlsx
@@ -88,145 +88,145 @@
     <t>Tuesday, Feb. 11 3:45 - 4:15</t>
   </si>
   <si>
+    <t>Zhu, Hongman</t>
+  </si>
+  <si>
+    <t>Shen, Jiayi</t>
+  </si>
+  <si>
+    <t>Sousa, Rachel Sylvia</t>
+  </si>
+  <si>
+    <t>Wang, Harold Zhaokun</t>
+  </si>
+  <si>
+    <t>Hussein, Amina Omar</t>
+  </si>
+  <si>
+    <t>Corrette, Jack</t>
+  </si>
+  <si>
+    <t>Czarnecki, Paulina</t>
+  </si>
+  <si>
+    <t>Kirsher, Douglas Yuen</t>
+  </si>
+  <si>
+    <t>Evensen, Claire Elizabeth</t>
+  </si>
+  <si>
+    <t>Xiang, Mark</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Esquivel, Emmanuel</t>
+  </si>
+  <si>
+    <t>Steven Allison</t>
+  </si>
+  <si>
+    <t>Smith, Sarah Taylor</t>
+  </si>
+  <si>
+    <t>Xu, Angela</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Scott Atwood</t>
+  </si>
+  <si>
+    <t>Degen, Alexandra Maria</t>
+  </si>
+  <si>
+    <t>Bruce Blumberg</t>
+  </si>
+  <si>
+    <t>Nguyen, Nguyen Tran Thao</t>
+  </si>
+  <si>
+    <t>Jan, Tzu-Yi</t>
+  </si>
+  <si>
+    <t>Brody</t>
+  </si>
+  <si>
+    <t>Bartas, Katrina Lee</t>
+  </si>
+  <si>
+    <t>Hwang, Ahyeon</t>
+  </si>
+  <si>
+    <t>Tim Downing</t>
+  </si>
+  <si>
+    <t>Dae Seok Eom</t>
+  </si>
+  <si>
+    <t>Du, Mingyu</t>
+  </si>
+  <si>
+    <t>Celia Faiola</t>
+  </si>
+  <si>
+    <t>Herat, Samantha</t>
+  </si>
+  <si>
+    <t>Steve Frank</t>
+  </si>
+  <si>
+    <t>Ward, Erica Min</t>
+  </si>
+  <si>
+    <t>Anya Grosberg</t>
+  </si>
+  <si>
+    <t>Heid, Leslie</t>
+  </si>
+  <si>
+    <t>Wayne Hayes</t>
+  </si>
+  <si>
+    <t>Narain, Vedang</t>
+  </si>
+  <si>
+    <t>Lander</t>
+  </si>
+  <si>
+    <t>Devon Lawson</t>
+  </si>
+  <si>
+    <t>Grace Yuh Chwen Lee</t>
+  </si>
+  <si>
+    <t>Chang Liu</t>
+  </si>
+  <si>
     <t>Ermoshkin, Maxim Ohairwe</t>
   </si>
   <si>
-    <t>Hwang, Ahyeon</t>
-  </si>
-  <si>
-    <t>Czarnecki, Paulina</t>
-  </si>
-  <si>
-    <t>Jan, Tzu-Yi</t>
+    <t>Ilhem Messaoudi</t>
+  </si>
+  <si>
+    <t>Matt McHenry</t>
+  </si>
+  <si>
+    <t>Lee, Beoung Hun</t>
+  </si>
+  <si>
+    <t>Mortazavi</t>
+  </si>
+  <si>
+    <t>Qing Nie</t>
+  </si>
+  <si>
+    <t>Eric Potma</t>
   </si>
   <si>
     <t>Athreya, Advait</t>
-  </si>
-  <si>
-    <t>Esquivel, Emmanuel</t>
-  </si>
-  <si>
-    <t>Herat, Samantha</t>
-  </si>
-  <si>
-    <t>Du, Mingyu</t>
-  </si>
-  <si>
-    <t>Hussein, Amina Omar</t>
-  </si>
-  <si>
-    <t>Shen, Jiayi</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Smith, Sarah Taylor</t>
-  </si>
-  <si>
-    <t>Steven Allison</t>
-  </si>
-  <si>
-    <t>Narain, Vedang</t>
-  </si>
-  <si>
-    <t>Zhu, Hongman</t>
-  </si>
-  <si>
-    <t>Ward, Erica Min</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Scott Atwood</t>
-  </si>
-  <si>
-    <t>Corrette, Jack</t>
-  </si>
-  <si>
-    <t>Xiang, Mark</t>
-  </si>
-  <si>
-    <t>Xu, Angela</t>
-  </si>
-  <si>
-    <t>Bruce Blumberg</t>
-  </si>
-  <si>
-    <t>Degen, Alexandra Maria</t>
-  </si>
-  <si>
-    <t>Brody</t>
-  </si>
-  <si>
-    <t>Sousa, Rachel Sylvia</t>
-  </si>
-  <si>
-    <t>Tim Downing</t>
-  </si>
-  <si>
-    <t>Wang, Harold Zhaokun</t>
-  </si>
-  <si>
-    <t>Dae Seok Eom</t>
-  </si>
-  <si>
-    <t>Lee, Beoung Hun</t>
-  </si>
-  <si>
-    <t>Heid, Leslie</t>
-  </si>
-  <si>
-    <t>Celia Faiola</t>
-  </si>
-  <si>
-    <t>Nguyen, Nguyen Tran Thao</t>
-  </si>
-  <si>
-    <t>Steve Frank</t>
-  </si>
-  <si>
-    <t>Evensen, Claire Elizabeth</t>
-  </si>
-  <si>
-    <t>Anya Grosberg</t>
-  </si>
-  <si>
-    <t>Wayne Hayes</t>
-  </si>
-  <si>
-    <t>Kirsher, Douglas Yuen</t>
-  </si>
-  <si>
-    <t>Lander</t>
-  </si>
-  <si>
-    <t>Devon Lawson</t>
-  </si>
-  <si>
-    <t>Grace Yuh Chwen Lee</t>
-  </si>
-  <si>
-    <t>Chang Liu</t>
-  </si>
-  <si>
-    <t>Ilhem Messaoudi</t>
-  </si>
-  <si>
-    <t>Matt McHenry</t>
-  </si>
-  <si>
-    <t>Bartas, Katrina Lee</t>
-  </si>
-  <si>
-    <t>Mortazavi</t>
-  </si>
-  <si>
-    <t>Qing Nie</t>
-  </si>
-  <si>
-    <t>Eric Potma</t>
   </si>
   <si>
     <t>Ranz</t>
@@ -756,7 +756,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -764,7 +764,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -772,7 +772,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -780,7 +780,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -788,7 +788,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -796,7 +796,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -804,7 +804,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -812,7 +812,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -820,7 +820,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -828,7 +828,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -836,7 +836,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -844,7 +844,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -852,7 +852,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -874,7 +874,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -882,7 +882,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -890,7 +890,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -898,7 +898,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -906,7 +906,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -914,7 +914,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -922,7 +922,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -930,7 +930,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -938,7 +938,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -946,7 +946,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -954,7 +954,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -970,7 +970,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -992,7 +992,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1000,7 +1000,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1008,7 +1008,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1016,7 +1016,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1024,7 +1024,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1032,7 +1032,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1040,7 +1040,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1048,7 +1048,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1056,7 +1056,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1064,7 +1064,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1072,7 +1072,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1080,7 +1080,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1088,7 +1088,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1110,7 +1110,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1118,7 +1118,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1126,7 +1126,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1134,7 +1134,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1142,7 +1142,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1150,7 +1150,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1158,7 +1158,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1166,7 +1166,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1174,7 +1174,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1182,7 +1182,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1190,7 +1190,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1206,7 +1206,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1228,7 +1228,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1236,7 +1236,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1244,7 +1244,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1252,7 +1252,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1260,7 +1260,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1268,7 +1268,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1276,7 +1276,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1284,7 +1284,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1292,7 +1292,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1300,7 +1300,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1308,7 +1308,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1324,7 +1324,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1346,7 +1346,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1354,7 +1354,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1362,7 +1362,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1370,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1378,7 +1378,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1386,7 +1386,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1394,7 +1394,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1402,7 +1402,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1410,7 +1410,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1418,7 +1418,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1426,7 +1426,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1434,7 +1434,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1442,7 +1442,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1464,7 +1464,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1472,7 +1472,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1480,7 +1480,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1488,7 +1488,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1496,7 +1496,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1504,7 +1504,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1512,7 +1512,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1520,7 +1520,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1528,7 +1528,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1536,7 +1536,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1544,7 +1544,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1560,7 +1560,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1582,7 +1582,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1590,7 +1590,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1598,7 +1598,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1606,7 +1606,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1614,7 +1614,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1622,7 +1622,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1630,7 +1630,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1638,7 +1638,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1646,7 +1646,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1654,7 +1654,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1662,7 +1662,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1678,7 +1678,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1700,7 +1700,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1708,7 +1708,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1716,7 +1716,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1724,7 +1724,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1732,7 +1732,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1740,7 +1740,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1748,7 +1748,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1756,7 +1756,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1764,7 +1764,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1772,7 +1772,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1780,7 +1780,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1796,7 +1796,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1818,7 +1818,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1826,7 +1826,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1834,7 +1834,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1842,7 +1842,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1850,7 +1850,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1858,7 +1858,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1866,7 +1866,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1874,7 +1874,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1882,7 +1882,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1890,7 +1890,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1898,7 +1898,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1906,7 +1906,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1914,7 +1914,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1944,7 +1944,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1952,7 +1952,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1960,7 +1960,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1968,7 +1968,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1976,7 +1976,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1984,7 +1984,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1992,7 +1992,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2000,7 +2000,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2008,7 +2008,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2016,7 +2016,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2024,7 +2024,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2032,7 +2032,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -2054,7 +2054,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2062,7 +2062,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2070,7 +2070,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2078,7 +2078,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2086,7 +2086,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2094,7 +2094,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2102,7 +2102,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2110,7 +2110,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2118,7 +2118,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2126,7 +2126,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2134,7 +2134,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2142,7 +2142,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2150,7 +2150,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -2180,7 +2180,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2188,7 +2188,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2196,7 +2196,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2204,7 +2204,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2212,7 +2212,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2220,7 +2220,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2228,7 +2228,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2236,7 +2236,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2244,7 +2244,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2252,7 +2252,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2260,7 +2260,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2268,7 +2268,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -2298,7 +2298,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2306,7 +2306,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2314,7 +2314,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2322,7 +2322,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2330,7 +2330,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2338,7 +2338,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2346,7 +2346,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2354,7 +2354,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2362,7 +2362,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2370,7 +2370,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2378,7 +2378,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2386,7 +2386,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -2416,7 +2416,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2424,7 +2424,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2432,7 +2432,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2440,7 +2440,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2456,7 +2456,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2464,7 +2464,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2472,7 +2472,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2480,7 +2480,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2488,7 +2488,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2504,7 +2504,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -2534,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2542,7 +2542,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2550,7 +2550,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2558,7 +2558,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2566,7 +2566,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2574,7 +2574,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2582,7 +2582,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2590,7 +2590,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2598,7 +2598,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2606,7 +2606,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2614,7 +2614,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2622,7 +2622,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -2652,7 +2652,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2660,7 +2660,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2668,7 +2668,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2676,7 +2676,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2684,7 +2684,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2692,7 +2692,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2700,7 +2700,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2708,7 +2708,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2716,7 +2716,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2724,7 +2724,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2740,7 +2740,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -2770,7 +2770,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2778,7 +2778,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2786,7 +2786,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2794,7 +2794,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2802,7 +2802,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2810,7 +2810,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2818,7 +2818,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2826,7 +2826,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2834,7 +2834,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2842,7 +2842,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2858,7 +2858,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -2888,7 +2888,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2896,7 +2896,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2904,7 +2904,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2912,7 +2912,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2920,7 +2920,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2928,7 +2928,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2936,7 +2936,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2944,7 +2944,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2952,7 +2952,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2960,7 +2960,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2976,7 +2976,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -3006,7 +3006,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3014,7 +3014,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3022,7 +3022,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3030,7 +3030,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3038,7 +3038,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3046,7 +3046,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3054,7 +3054,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3062,7 +3062,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3070,7 +3070,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3078,7 +3078,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3094,7 +3094,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -3124,7 +3124,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3132,7 +3132,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3140,7 +3140,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3148,7 +3148,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3156,7 +3156,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3164,7 +3164,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3172,7 +3172,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3180,7 +3180,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3188,7 +3188,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3196,7 +3196,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3204,7 +3204,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3212,7 +3212,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -3234,7 +3234,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3242,7 +3242,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3250,7 +3250,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3258,7 +3258,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3266,7 +3266,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3274,7 +3274,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3282,7 +3282,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3290,7 +3290,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3298,7 +3298,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3306,7 +3306,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3314,7 +3314,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3330,7 +3330,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -3360,7 +3360,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3368,7 +3368,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3376,7 +3376,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3384,7 +3384,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3392,7 +3392,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3400,7 +3400,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3416,7 +3416,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3424,7 +3424,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3432,7 +3432,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3440,7 +3440,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3448,7 +3448,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -3478,7 +3478,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3486,7 +3486,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3494,7 +3494,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3502,7 +3502,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3510,7 +3510,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3518,7 +3518,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3526,7 +3526,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3534,7 +3534,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3542,7 +3542,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3550,7 +3550,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3558,7 +3558,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3566,7 +3566,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -3596,7 +3596,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3604,7 +3604,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3612,7 +3612,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3620,7 +3620,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3628,7 +3628,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3636,7 +3636,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3644,7 +3644,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3652,7 +3652,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3660,7 +3660,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3668,7 +3668,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3676,7 +3676,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3684,7 +3684,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -3714,7 +3714,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3722,7 +3722,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3730,7 +3730,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3738,7 +3738,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3746,7 +3746,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3754,7 +3754,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3762,7 +3762,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3770,7 +3770,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3778,7 +3778,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3786,7 +3786,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3802,7 +3802,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -3832,7 +3832,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3840,7 +3840,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3848,7 +3848,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3856,7 +3856,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3864,7 +3864,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3872,7 +3872,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3880,7 +3880,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3888,7 +3888,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3896,7 +3896,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3904,7 +3904,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3920,7 +3920,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -3942,7 +3942,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3950,7 +3950,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3958,7 +3958,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3966,7 +3966,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3974,7 +3974,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3982,7 +3982,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3990,7 +3990,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3998,7 +3998,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4006,7 +4006,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4014,7 +4014,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4022,7 +4022,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4030,7 +4030,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4038,7 +4038,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -4060,7 +4060,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4068,7 +4068,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4076,7 +4076,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4084,7 +4084,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4092,7 +4092,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4100,7 +4100,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4108,7 +4108,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4116,7 +4116,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4124,7 +4124,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4132,7 +4132,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4140,7 +4140,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4148,7 +4148,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4156,7 +4156,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -4178,7 +4178,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4186,7 +4186,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4194,7 +4194,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4202,7 +4202,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4210,7 +4210,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4218,7 +4218,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4226,7 +4226,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4234,7 +4234,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4242,7 +4242,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4250,7 +4250,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4258,7 +4258,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4266,7 +4266,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4274,7 +4274,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -4296,7 +4296,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4304,7 +4304,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4312,7 +4312,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4320,7 +4320,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4328,7 +4328,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4336,7 +4336,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4344,7 +4344,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4352,7 +4352,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4360,7 +4360,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4376,7 +4376,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4384,7 +4384,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4392,7 +4392,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -4414,7 +4414,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4422,7 +4422,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4430,7 +4430,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4438,7 +4438,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4446,7 +4446,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4454,7 +4454,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4462,7 +4462,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4470,7 +4470,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4478,7 +4478,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4486,7 +4486,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4494,7 +4494,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4510,7 +4510,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -4532,7 +4532,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4540,7 +4540,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4548,7 +4548,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4556,7 +4556,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4564,7 +4564,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4572,7 +4572,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4580,7 +4580,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4588,7 +4588,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4596,7 +4596,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4604,7 +4604,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4612,7 +4612,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4620,7 +4620,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4628,7 +4628,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Example4_2020EntryLocations/fromBot_FacultySchedules_1SheetEach.xlsx
+++ b/Example4_2020EntryLocations/fromBot_FacultySchedules_1SheetEach.xlsx
@@ -88,135 +88,138 @@
     <t>Tuesday, Feb. 11 3:45 - 4:15</t>
   </si>
   <si>
+    <t>Smith, Sarah Taylor</t>
+  </si>
+  <si>
+    <t>Ermoshkin, Maxim Ohairwe</t>
+  </si>
+  <si>
+    <t>Wang, Harold Zhaokun</t>
+  </si>
+  <si>
+    <t>Lee, Beoung Hun</t>
+  </si>
+  <si>
+    <t>Hussein, Amina Omar</t>
+  </si>
+  <si>
+    <t>Corrette, Jack</t>
+  </si>
+  <si>
+    <t>Ward, Erica Min</t>
+  </si>
+  <si>
+    <t>Narain, Vedang</t>
+  </si>
+  <si>
+    <t>Sousa, Rachel Sylvia</t>
+  </si>
+  <si>
+    <t>Esquivel, Emmanuel</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Jan, Tzu-Yi</t>
+  </si>
+  <si>
+    <t>Steven Allison</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Scott Atwood</t>
+  </si>
+  <si>
+    <t>Bartas, Katrina Lee</t>
+  </si>
+  <si>
+    <t>Czarnecki, Paulina</t>
+  </si>
+  <si>
+    <t>Xiang, Mark</t>
+  </si>
+  <si>
+    <t>Bruce Blumberg</t>
+  </si>
+  <si>
+    <t>Hwang, Ahyeon</t>
+  </si>
+  <si>
+    <t>Degen, Alexandra Maria</t>
+  </si>
+  <si>
+    <t>Brody</t>
+  </si>
+  <si>
+    <t>Evensen, Claire Elizabeth</t>
+  </si>
+  <si>
     <t>Zhu, Hongman</t>
   </si>
   <si>
+    <t>Tim Downing</t>
+  </si>
+  <si>
+    <t>Kirsher, Douglas Yuen</t>
+  </si>
+  <si>
+    <t>Nguyen, Nguyen Tran Thao</t>
+  </si>
+  <si>
+    <t>Herat, Samantha</t>
+  </si>
+  <si>
+    <t>Dae Seok Eom</t>
+  </si>
+  <si>
+    <t>Athreya, Advait</t>
+  </si>
+  <si>
+    <t>Du, Mingyu</t>
+  </si>
+  <si>
+    <t>Celia Faiola</t>
+  </si>
+  <si>
+    <t>Steve Frank</t>
+  </si>
+  <si>
     <t>Shen, Jiayi</t>
   </si>
   <si>
-    <t>Sousa, Rachel Sylvia</t>
-  </si>
-  <si>
-    <t>Wang, Harold Zhaokun</t>
-  </si>
-  <si>
-    <t>Hussein, Amina Omar</t>
-  </si>
-  <si>
-    <t>Corrette, Jack</t>
-  </si>
-  <si>
-    <t>Czarnecki, Paulina</t>
-  </si>
-  <si>
-    <t>Kirsher, Douglas Yuen</t>
-  </si>
-  <si>
-    <t>Evensen, Claire Elizabeth</t>
-  </si>
-  <si>
-    <t>Xiang, Mark</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Esquivel, Emmanuel</t>
-  </si>
-  <si>
-    <t>Steven Allison</t>
-  </si>
-  <si>
-    <t>Smith, Sarah Taylor</t>
+    <t>Anya Grosberg</t>
+  </si>
+  <si>
+    <t>Wayne Hayes</t>
+  </si>
+  <si>
+    <t>Lander</t>
+  </si>
+  <si>
+    <t>Heid, Leslie</t>
+  </si>
+  <si>
+    <t>Devon Lawson</t>
   </si>
   <si>
     <t>Xu, Angela</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Scott Atwood</t>
-  </si>
-  <si>
-    <t>Degen, Alexandra Maria</t>
-  </si>
-  <si>
-    <t>Bruce Blumberg</t>
-  </si>
-  <si>
-    <t>Nguyen, Nguyen Tran Thao</t>
-  </si>
-  <si>
-    <t>Jan, Tzu-Yi</t>
-  </si>
-  <si>
-    <t>Brody</t>
-  </si>
-  <si>
-    <t>Bartas, Katrina Lee</t>
-  </si>
-  <si>
-    <t>Hwang, Ahyeon</t>
-  </si>
-  <si>
-    <t>Tim Downing</t>
-  </si>
-  <si>
-    <t>Dae Seok Eom</t>
-  </si>
-  <si>
-    <t>Du, Mingyu</t>
-  </si>
-  <si>
-    <t>Celia Faiola</t>
-  </si>
-  <si>
-    <t>Herat, Samantha</t>
-  </si>
-  <si>
-    <t>Steve Frank</t>
-  </si>
-  <si>
-    <t>Ward, Erica Min</t>
-  </si>
-  <si>
-    <t>Anya Grosberg</t>
-  </si>
-  <si>
-    <t>Heid, Leslie</t>
-  </si>
-  <si>
-    <t>Wayne Hayes</t>
-  </si>
-  <si>
-    <t>Narain, Vedang</t>
-  </si>
-  <si>
-    <t>Lander</t>
-  </si>
-  <si>
-    <t>Devon Lawson</t>
-  </si>
-  <si>
     <t>Grace Yuh Chwen Lee</t>
   </si>
   <si>
     <t>Chang Liu</t>
   </si>
   <si>
-    <t>Ermoshkin, Maxim Ohairwe</t>
-  </si>
-  <si>
     <t>Ilhem Messaoudi</t>
   </si>
   <si>
     <t>Matt McHenry</t>
   </si>
   <si>
-    <t>Lee, Beoung Hun</t>
-  </si>
-  <si>
     <t>Mortazavi</t>
   </si>
   <si>
@@ -224,9 +227,6 @@
   </si>
   <si>
     <t>Eric Potma</t>
-  </si>
-  <si>
-    <t>Athreya, Advait</t>
   </si>
   <si>
     <t>Ranz</t>
@@ -756,7 +756,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -764,7 +764,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -772,7 +772,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -780,7 +780,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -788,7 +788,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -796,7 +796,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -804,7 +804,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -812,7 +812,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -820,7 +820,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -828,7 +828,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -836,7 +836,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -844,7 +844,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -852,7 +852,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -874,7 +874,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -882,7 +882,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -890,7 +890,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -898,7 +898,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -906,7 +906,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -914,7 +914,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -922,7 +922,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -930,7 +930,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -938,7 +938,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -946,7 +946,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -954,7 +954,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -970,7 +970,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -992,7 +992,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1000,7 +1000,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1008,7 +1008,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1016,7 +1016,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1024,7 +1024,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1032,7 +1032,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1040,7 +1040,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1048,7 +1048,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1056,7 +1056,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1064,7 +1064,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1072,7 +1072,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1080,7 +1080,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1088,7 +1088,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1110,7 +1110,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1118,7 +1118,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1126,7 +1126,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1134,7 +1134,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1142,7 +1142,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1150,7 +1150,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1158,7 +1158,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1166,7 +1166,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1174,7 +1174,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1182,7 +1182,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1190,7 +1190,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1206,7 +1206,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1228,7 +1228,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1236,7 +1236,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1244,7 +1244,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1252,7 +1252,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1260,7 +1260,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1268,7 +1268,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1276,7 +1276,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1284,7 +1284,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1292,7 +1292,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1300,7 +1300,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1308,7 +1308,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1324,7 +1324,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1346,7 +1346,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1354,7 +1354,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1362,7 +1362,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1370,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1378,7 +1378,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1386,7 +1386,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1394,7 +1394,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1402,7 +1402,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1410,7 +1410,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1418,7 +1418,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1426,7 +1426,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1434,7 +1434,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1442,7 +1442,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1464,7 +1464,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1472,7 +1472,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1480,7 +1480,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1488,7 +1488,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1496,7 +1496,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1504,7 +1504,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1512,7 +1512,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1520,7 +1520,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1536,7 +1536,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1544,7 +1544,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1560,7 +1560,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1582,7 +1582,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1590,7 +1590,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1598,7 +1598,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1606,7 +1606,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1614,7 +1614,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1622,7 +1622,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1630,7 +1630,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1638,7 +1638,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1646,7 +1646,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1654,7 +1654,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1662,7 +1662,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1678,7 +1678,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1700,7 +1700,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1708,7 +1708,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1716,7 +1716,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1724,7 +1724,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1732,7 +1732,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1748,7 +1748,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1756,7 +1756,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1764,7 +1764,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1772,7 +1772,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1780,7 +1780,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1796,7 +1796,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1818,7 +1818,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1826,7 +1826,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1834,7 +1834,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1842,7 +1842,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1850,7 +1850,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1858,7 +1858,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1866,7 +1866,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1874,7 +1874,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1882,7 +1882,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1890,7 +1890,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1898,7 +1898,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1906,7 +1906,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1914,7 +1914,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1944,7 +1944,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1952,7 +1952,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1960,7 +1960,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1968,7 +1968,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1976,7 +1976,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1984,7 +1984,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1992,7 +1992,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2000,7 +2000,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2008,7 +2008,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2016,7 +2016,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2024,7 +2024,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2032,7 +2032,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -2054,7 +2054,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2062,7 +2062,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2070,7 +2070,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2078,7 +2078,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2086,7 +2086,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2094,7 +2094,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2102,7 +2102,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2110,7 +2110,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2118,7 +2118,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2126,7 +2126,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2134,7 +2134,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2142,7 +2142,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2150,7 +2150,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -2180,7 +2180,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2188,7 +2188,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2196,7 +2196,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2204,7 +2204,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2212,7 +2212,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2220,7 +2220,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2228,7 +2228,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2236,7 +2236,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2244,7 +2244,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2252,7 +2252,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2260,7 +2260,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2268,7 +2268,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -2298,7 +2298,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2306,7 +2306,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2314,7 +2314,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2322,7 +2322,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2330,7 +2330,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2338,7 +2338,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2346,7 +2346,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2354,7 +2354,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2362,7 +2362,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2370,7 +2370,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2378,7 +2378,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2386,7 +2386,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -2424,7 +2424,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2432,7 +2432,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2440,7 +2440,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2448,7 +2448,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2456,7 +2456,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2464,7 +2464,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2472,7 +2472,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2480,7 +2480,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2488,7 +2488,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2504,7 +2504,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -2534,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2542,7 +2542,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2550,7 +2550,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2558,7 +2558,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2566,7 +2566,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2574,7 +2574,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2582,7 +2582,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2590,7 +2590,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2598,7 +2598,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2606,7 +2606,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2614,7 +2614,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2622,7 +2622,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -2652,7 +2652,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2660,7 +2660,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2668,7 +2668,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2676,7 +2676,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2684,7 +2684,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2692,7 +2692,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2700,7 +2700,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2708,7 +2708,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2716,7 +2716,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2724,7 +2724,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2740,7 +2740,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -2770,7 +2770,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2778,7 +2778,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2786,7 +2786,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2794,7 +2794,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2802,7 +2802,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2810,7 +2810,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2818,7 +2818,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2826,7 +2826,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2834,7 +2834,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2842,7 +2842,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2858,7 +2858,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -2888,7 +2888,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2896,7 +2896,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2904,7 +2904,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2912,7 +2912,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2920,7 +2920,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2928,7 +2928,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2936,7 +2936,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2944,7 +2944,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2952,7 +2952,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2960,7 +2960,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2976,7 +2976,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -3006,7 +3006,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3014,7 +3014,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3022,7 +3022,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3030,7 +3030,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3038,7 +3038,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3046,7 +3046,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3054,7 +3054,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3062,7 +3062,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3070,7 +3070,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3078,7 +3078,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3094,7 +3094,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -3124,7 +3124,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3132,7 +3132,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3140,7 +3140,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3148,7 +3148,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3156,7 +3156,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3164,7 +3164,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3172,7 +3172,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3188,7 +3188,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3196,7 +3196,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3204,7 +3204,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3212,7 +3212,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -3234,7 +3234,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3242,7 +3242,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3250,7 +3250,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3258,7 +3258,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3266,7 +3266,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3274,7 +3274,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3282,7 +3282,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3290,7 +3290,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3298,7 +3298,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3306,7 +3306,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3314,7 +3314,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3330,7 +3330,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -3360,7 +3360,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3368,7 +3368,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3376,7 +3376,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3384,7 +3384,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3392,7 +3392,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3400,7 +3400,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3408,7 +3408,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3416,7 +3416,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3424,7 +3424,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3432,7 +3432,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3440,7 +3440,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3448,7 +3448,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -3478,7 +3478,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3486,7 +3486,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3494,7 +3494,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3502,7 +3502,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3510,7 +3510,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3518,7 +3518,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3526,7 +3526,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3534,7 +3534,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3542,7 +3542,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3550,7 +3550,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3558,7 +3558,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3566,7 +3566,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -3596,7 +3596,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3604,7 +3604,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3612,7 +3612,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3620,7 +3620,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3628,7 +3628,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3636,7 +3636,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3644,7 +3644,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3652,7 +3652,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3660,7 +3660,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3668,7 +3668,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3676,7 +3676,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3684,7 +3684,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -3714,7 +3714,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3722,7 +3722,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3730,7 +3730,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3738,7 +3738,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3746,7 +3746,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3754,7 +3754,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3762,7 +3762,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3770,7 +3770,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3778,7 +3778,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3786,7 +3786,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3802,7 +3802,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -3832,7 +3832,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3840,7 +3840,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3848,7 +3848,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3856,7 +3856,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3864,7 +3864,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3880,7 +3880,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3888,7 +3888,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3896,7 +3896,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3904,7 +3904,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3920,7 +3920,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -3950,7 +3950,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3958,7 +3958,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3982,7 +3982,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3990,7 +3990,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3998,7 +3998,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4006,7 +4006,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4014,7 +4014,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4022,7 +4022,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4030,7 +4030,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4038,7 +4038,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -4068,7 +4068,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4076,7 +4076,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4084,7 +4084,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4092,7 +4092,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4100,7 +4100,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4108,7 +4108,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4124,7 +4124,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4132,7 +4132,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4140,7 +4140,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4148,7 +4148,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4156,7 +4156,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -4186,7 +4186,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4194,7 +4194,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4202,7 +4202,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4210,7 +4210,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4218,7 +4218,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4226,7 +4226,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4234,7 +4234,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4242,7 +4242,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4250,7 +4250,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4258,7 +4258,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4266,7 +4266,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4274,7 +4274,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -4296,7 +4296,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4304,7 +4304,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4312,7 +4312,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4320,7 +4320,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4328,7 +4328,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4336,7 +4336,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4344,7 +4344,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4352,7 +4352,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4360,7 +4360,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4368,7 +4368,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4376,7 +4376,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4384,7 +4384,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4392,7 +4392,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -4414,7 +4414,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4422,7 +4422,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4430,7 +4430,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4438,7 +4438,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4446,7 +4446,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4454,7 +4454,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4462,7 +4462,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4470,7 +4470,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4478,7 +4478,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4486,7 +4486,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4494,7 +4494,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4510,7 +4510,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -4532,7 +4532,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4540,7 +4540,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4548,7 +4548,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4556,7 +4556,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4564,7 +4564,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4572,7 +4572,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4580,7 +4580,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4588,7 +4588,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4596,7 +4596,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4604,7 +4604,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4612,7 +4612,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4620,7 +4620,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4628,7 +4628,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
